--- a/question/IMPORT QUESTION.xlsx
+++ b/question/IMPORT QUESTION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKING FILES\GUIMO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327C1440-E2FA-40BA-85B5-2DFFCB00D5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF416AE-DC30-4197-81B3-FB4E1F734DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C08D60EB-29FC-49DD-9B7A-819E56D5301E}"/>
+    <workbookView xWindow="4200" yWindow="1320" windowWidth="15375" windowHeight="7995" xr2:uid="{C08D60EB-29FC-49DD-9B7A-819E56D5301E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>title</t>
   </si>
@@ -73,6 +73,84 @@
   </si>
   <si>
     <t>correct_option</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+  </si>
+  <si>
+    <t>Sample Exam</t>
+  </si>
+  <si>
+    <t>Mixed-type sample exam</t>
+  </si>
+  <si>
+    <t>Which gas do plants absorb from the atmosphere?</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Humans have walked on the Moon.</t>
+  </si>
+  <si>
+    <t>What device is used to measure temperature?</t>
+  </si>
+  <si>
+    <t>Thermometer</t>
+  </si>
+  <si>
+    <t>List any four colors in the rainbow.</t>
+  </si>
+  <si>
+    <t>Red, Orange, Yellow, Green</t>
+  </si>
+  <si>
+    <t>The Pacific Ocean is the ___ ocean in the world.</t>
+  </si>
+  <si>
+    <t>largest</t>
+  </si>
+  <si>
+    <t>Describe the effects of climate change on the environment.</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>True/False</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>Enumeration</t>
+  </si>
+  <si>
+    <t>Fill in the Blanks</t>
+  </si>
+  <si>
+    <t>Essay</t>
   </si>
 </sst>
 </file>
@@ -116,13 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,24 +516,24 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="69.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -503,94 +578,160 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
